--- a/biology/Biochimie/Thionine/Thionine.xlsx
+++ b/biology/Biochimie/Thionine/Thionine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thionines sont une famille de peptides présentes dans les plantes. Une thionine est constituée de 45 à 48 acides aminés, dont 6 à 8 cystéines formant 3 à 4 ponts disulfures.
 </t>
@@ -511,7 +523,9 @@
           <t>Propriétés de coloration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines thionines sont utilisées dans des techniques de coloration histologique pour révéler le cytoplasme (Réticulum endoplasmique compris) des cellules d'un tissu biologique.
 </t>
@@ -542,7 +556,9 @@
           <t>Propriétés cytotoxiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines thionines ont des propriétés cytotoxiques. C'est pourquoi elles sont une piste intéressante pour le développement de nouveaux médicaments contre le cancer, bien que jusqu'à présent aucune thionine ne soit utilisée au stade clinique.
  Portail de la biochimie                     </t>
